--- a/四川省乡村治理示范村名录——编辑中.xlsx
+++ b/四川省乡村治理示范村名录——编辑中.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04-研究生论文预备数据\01-乡村振兴现代农业乡村旅游\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\05-GITHUB\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A46D946-E567-44F2-851F-583710F9BCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600BC8DA-7DBA-4CCD-8CF4-4B35F6BD8FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9518" yWindow="0" windowWidth="9675" windowHeight="11363" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="国家级乡村治理示范镇" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5228" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5539" uniqueCount="1208">
   <si>
     <t>眉山市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4374,6 +4374,438 @@
   <si>
     <t>三十二梁镇柳林村</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经开区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴文街道中营村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晏场镇团结村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上里镇中里村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧峰峡镇后盐村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新店镇新星村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红星镇骑龙村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华乡落改村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百丈镇安桥村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城厢镇龙尾村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐英乡幸福村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思延镇草坪村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝盛乡玉溪村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五龙乡东风村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陇东镇赶洋沟村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荥河镇王家村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝峰彝族乡田坝村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九襄镇桃源村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇木镇松坪村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜东镇新林村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富林镇太平村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王岗坪彝族藏族乡挖角村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回隆镇叶坪村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安顺场镇松林村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富牛镇玉龙村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三苏镇望苏村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万胜镇艾光村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崇礼镇大定桥村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦江镇正华村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观音街道兴崇社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢家街道义和场社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大化镇华兴社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙滩镇四海社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文宫镇桂湾村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岗乡盘龙村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山镇前锋村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳江镇两河村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐乐镇梅湾村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐乐镇红石村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗波乡宝镜村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高台镇诸葛村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雁江区保和镇黄谷村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雁江区东峰镇大田村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雁江区宝台镇春天沟村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通贤镇文寨村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇子镇金牛村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴隆镇老林村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝林镇万斤沟村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东山镇方广村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大佛镇东禅寺村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中壤塘镇依根门多村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南木达镇泽祥村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邛溪镇热坤村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查尔玛乡达尔龙村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡拉脚乡二普鲁村</t>
+  </si>
+  <si>
+    <t>色尔古镇五里村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙石多镇昌德村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若尔盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>县求吉乡嘎哇村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃日镇木兰村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三江镇乐活村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威州镇布瓦村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白河乡太平村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米亚罗镇八角碉村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新都桥镇水桥村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼通镇舍联村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白玉县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖玉镇德沙孔村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴底镇崃依村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲居镇小巴旺村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各卡乡龙普村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉呷镇尼公村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香格里拉镇亚丁村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柯洛洞乡独木岭村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌拉溪镇河坝村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村戈乡查卡村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虾拉沱镇章达村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴隆镇和平村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然乌乡克麦村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博美乡德麦巴村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻日乡麦坝村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八角楼乡松茸村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奔都乡俄木学村</t>
+  </si>
+  <si>
+    <t>西昌市</t>
+  </si>
+  <si>
+    <t>樟木箐镇丘陵村</t>
+  </si>
+  <si>
+    <t>德昌县</t>
+  </si>
+  <si>
+    <t>麻栗镇民主村</t>
+  </si>
+  <si>
+    <t>会理市</t>
+  </si>
+  <si>
+    <t>彰冠镇古桥村</t>
+  </si>
+  <si>
+    <t>会东县</t>
+  </si>
+  <si>
+    <t>新街镇河边村</t>
+  </si>
+  <si>
+    <t>宁南县</t>
+  </si>
+  <si>
+    <t>松新镇碧窝村</t>
+  </si>
+  <si>
+    <t>普格县</t>
+  </si>
+  <si>
+    <t>螺髻山镇甲甲沟村</t>
+  </si>
+  <si>
+    <t>布拖县</t>
+  </si>
+  <si>
+    <t>特木里镇特尔村</t>
+  </si>
+  <si>
+    <t>昭觉县</t>
+  </si>
+  <si>
+    <t>三岔河镇三河村</t>
+  </si>
+  <si>
+    <t>金阳县</t>
+  </si>
+  <si>
+    <t>天地坝镇务科村</t>
+  </si>
+  <si>
+    <t>雷波县</t>
+  </si>
+  <si>
+    <t>黄琅镇大杉坪村</t>
+  </si>
+  <si>
+    <t>美姑县</t>
+  </si>
+  <si>
+    <t>柳洪乡吉觉古布村</t>
+  </si>
+  <si>
+    <t>甘洛县</t>
+  </si>
+  <si>
+    <t>吉米镇以达村</t>
+  </si>
+  <si>
+    <t>越西县</t>
+  </si>
+  <si>
+    <t>中所镇五里牌村</t>
+  </si>
+  <si>
+    <t>喜德县</t>
+  </si>
+  <si>
+    <t>冕山镇伍合村</t>
+  </si>
+  <si>
+    <t>冕宁县</t>
+  </si>
+  <si>
+    <t>石龙镇民主村</t>
+  </si>
+  <si>
+    <t>盐源县</t>
+  </si>
+  <si>
+    <t>树河镇大水田村</t>
+  </si>
+  <si>
+    <t>木里县</t>
+  </si>
+  <si>
+    <t>列瓦镇羊棚子村</t>
   </si>
 </sst>
 </file>
@@ -11315,10 +11747,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0B7212-C041-41C8-9EAC-76FC18DC4FE2}">
-  <dimension ref="A1:J700"/>
+  <dimension ref="A1:J799"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A675" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E697" sqref="E697"/>
+    <sheetView tabSelected="1" topLeftCell="A763" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J786" sqref="J786"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -24584,17 +25016,32 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="689" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="689" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C689" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D689" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="E689" s="1" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="690" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="690" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C690" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D690" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="E690" s="1" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="691" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="691" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C691" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D691" s="1" t="s">
         <v>12</v>
       </c>
@@ -24602,7 +25049,10 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="692" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="692" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C692" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D692" s="1" t="s">
         <v>12</v>
       </c>
@@ -24610,7 +25060,10 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="693" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="693" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C693" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D693" s="1" t="s">
         <v>162</v>
       </c>
@@ -24618,7 +25071,10 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="694" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="694" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C694" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D694" s="1" t="s">
         <v>162</v>
       </c>
@@ -24626,7 +25082,10 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="695" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="695" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C695" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D695" s="1" t="s">
         <v>164</v>
       </c>
@@ -24634,7 +25093,10 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="696" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="696" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C696" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D696" s="1" t="s">
         <v>164</v>
       </c>
@@ -24642,7 +25104,10 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="697" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="697" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C697" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D697" s="1" t="s">
         <v>164</v>
       </c>
@@ -24650,7 +25115,10 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="698" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="698" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C698" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D698" s="1" t="s">
         <v>9</v>
       </c>
@@ -24658,7 +25126,10 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="699" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="699" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C699" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D699" s="1" t="s">
         <v>9</v>
       </c>
@@ -24666,12 +25137,1104 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="700" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="700" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C700" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D700" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E700" s="1" t="s">
         <v>1090</v>
+      </c>
+    </row>
+    <row r="701" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C701" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D701" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E701" s="1" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="702" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C702" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D702" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E702" s="1" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="703" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C703" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D703" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E703" s="1" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="704" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C704" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D704" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E704" s="1" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="705" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C705" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D705" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E705" s="1" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="706" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C706" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D706" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E706" s="1" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="707" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C707" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D707" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E707" s="1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="708" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C708" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D708" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E708" s="1" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="709" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C709" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D709" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E709" s="1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="710" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C710" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D710" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E710" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="711" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C711" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D711" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E711" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="712" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C712" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D712" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E712" s="1" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="713" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C713" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D713" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E713" s="1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="714" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C714" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D714" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E714" s="1" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="715" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C715" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D715" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E715" s="1" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="716" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C716" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D716" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="E716" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="717" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C717" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D717" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="E717" s="1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="718" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C718" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D718" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E718" s="1" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="719" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C719" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D719" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E719" s="1" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="720" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C720" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D720" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E720" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="721" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C721" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D721" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E721" s="1" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="722" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C722" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D722" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E722" s="1" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="723" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C723" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D723" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E723" s="1" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="724" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C724" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D724" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E724" s="1" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="725" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C725" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D725" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E725" s="1" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="726" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C726" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D726" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E726" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="727" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C727" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D727" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E727" s="1" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="728" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C728" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D728" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E728" s="1" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="729" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C729" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D729" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E729" s="1" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="730" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C730" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D730" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E730" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="731" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C731" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D731" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E731" s="1" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="732" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C732" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D732" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E732" s="1" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="733" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C733" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D733" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E733" s="1" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="734" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C734" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D734" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E734" s="1" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="735" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C735" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D735" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E735" s="1" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="736" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C736" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D736" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="E736" s="1" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="737" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C737" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D737" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="E737" s="1" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="738" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C738" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D738" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E738" s="1" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="739" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C739" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D739" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E739" s="1" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="740" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C740" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D740" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E740" s="1" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="741" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C741" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D741" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E741" s="1" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="742" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C742" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D742" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E742" s="1" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="743" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C743" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D743" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E743" s="1" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="744" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C744" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D744" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E744" s="1" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="745" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C745" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D745" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E745" s="1" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="746" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C746" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D746" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E746" s="1" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="747" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C747" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D747" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E747" s="1" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="748" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C748" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D748" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E748" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="749" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C749" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D749" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E749" s="1" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="750" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C750" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D750" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E750" s="1" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="751" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C751" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D751" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E751" s="1" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="752" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C752" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D752" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E752" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="753" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C753" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D753" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E753" s="1" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="754" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C754" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D754" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E754" s="1" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="755" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C755" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D755" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E755" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="756" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C756" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D756" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E756" s="1" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="757" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C757" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D757" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="E757" s="1" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="758" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C758" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D758" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="E758" s="1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="759" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C759" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D759" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E759" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="760" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C760" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D760" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="E760" s="1" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="761" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C761" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D761" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E761" s="1" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="762" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C762" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D762" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E762" s="1" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="763" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C763" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D763" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E763" s="1" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="764" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C764" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D764" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="E764" s="1" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="765" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C765" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D765" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E765" s="1" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="766" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C766" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D766" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E766" s="1" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="767" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C767" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D767" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E767" s="1" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="768" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C768" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D768" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E768" s="1" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="769" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C769" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D769" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E769" s="1" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="770" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C770" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D770" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E770" s="1" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="771" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C771" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D771" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E771" s="1" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="772" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C772" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D772" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E772" s="1" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="773" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C773" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D773" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="E773" s="1" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="774" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C774" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D774" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E774" s="1" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="775" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C775" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D775" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="E775" s="1" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="776" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C776" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D776" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E776" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="777" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C777" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D777" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E777" s="1" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="778" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C778" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D778" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E778" s="1" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="779" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C779" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D779" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="E779" s="1" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="780" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C780" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D780" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="E780" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="781" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C781" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D781" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="E781" s="1" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="782" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C782" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D782" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="E782" s="1" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="783" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C783" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D783" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E783" s="1" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="784" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C784" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D784" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E784" s="1" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="785" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C785" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D785" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E785" s="1" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="786" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C786" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D786" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E786" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="787" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C787" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D787" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E787" s="1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="788" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C788" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D788" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E788" s="1" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="789" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C789" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D789" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E789" s="1" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="790" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C790" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D790" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E790" s="1" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="791" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C791" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D791" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E791" s="1" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="792" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C792" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D792" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E792" s="1" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="793" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C793" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D793" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E793" s="1" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="794" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C794" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D794" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E794" s="1" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="795" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C795" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D795" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E795" s="1" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="796" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C796" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D796" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E796" s="1" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="797" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C797" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D797" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E797" s="1" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="798" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C798" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D798" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E798" s="1" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="799" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C799" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D799" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E799" s="1" t="s">
+        <v>1207</v>
       </c>
     </row>
   </sheetData>
